--- a/2018宋佳伟加班.xlsx
+++ b/2018宋佳伟加班.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="171">
   <si>
     <t>序号</t>
   </si>
@@ -1950,6 +1950,51 @@
       <t>fei yong</t>
     </rPh>
     <rPh sb="8" eb="9">
+      <t>yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4300元</t>
+    <rPh sb="4" eb="5">
+      <t>yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018年</t>
+    <rPh sb="4" eb="5">
+      <t>nian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计28200元</t>
+    <rPh sb="7" eb="8">
+      <t>yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付</t>
+    <rPh sb="0" eb="1">
+      <t>yi fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7550元</t>
+    <rPh sb="4" eb="5">
+      <t>yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余20650元</t>
+    <rPh sb="0" eb="1">
+      <t>sheng yu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
       <t>yuan</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2344,10 +2389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J71"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2360,9 +2405,10 @@
     <col min="6" max="6" width="5.1640625" style="1" customWidth="1"/>
     <col min="7" max="8" width="18.6640625" customWidth="1"/>
     <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2391,8 +2437,11 @@
       <c r="J1" s="14" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K1" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -2421,8 +2470,11 @@
       <c r="J2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -2445,8 +2497,14 @@
         <v>11</v>
       </c>
       <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I3">
+        <v>20190108</v>
+      </c>
+      <c r="J3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -2455,8 +2513,17 @@
       <c r="F4" s="7"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I4" t="s">
+        <v>168</v>
+      </c>
+      <c r="J4" t="s">
+        <v>169</v>
+      </c>
+      <c r="K4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>79</v>
       </c>
@@ -2468,7 +2535,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -2492,7 +2559,7 @@
       </c>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -2516,7 +2583,7 @@
       </c>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -2540,7 +2607,7 @@
       </c>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -2564,7 +2631,7 @@
       </c>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -2588,7 +2655,7 @@
       </c>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -2610,7 +2677,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
       <c r="B12" s="11"/>
       <c r="C12" s="12"/>
@@ -2624,7 +2691,7 @@
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>84</v>
       </c>
@@ -2636,7 +2703,7 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>9</v>
       </c>
@@ -2658,7 +2725,7 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>10</v>
       </c>
@@ -2678,7 +2745,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>11</v>
       </c>
